--- a/demo.xlsx
+++ b/demo.xlsx
@@ -14,72 +14,159 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
-  <si>
-    <t>대가산업개발/신미정</t>
-  </si>
-  <si>
-    <t>대구2계</t>
-  </si>
-  <si>
-    <t>경북 경산시 와촌면 덕촌리 594-1 ,591-2,594,-2,597-1,-2,599-1,600 예다인 102동 4층 402호</t>
-  </si>
-  <si>
-    <t>경북 경산시 와촌면 덕촌리 594-1 ,591-2,594,-2,597-1,-2,599-1,600 예다인 103동 1층 104호</t>
-  </si>
-  <si>
-    <t>경북 경산시 와촌면 덕촌리 594-1 ,591-2,594,-2,597-1,-2,599-1,600 예다인 103동 2층 204호</t>
-  </si>
-  <si>
-    <t>경북 경산시 와촌면 덕촌리 594-1 ,591-2,594,-2,597-1,-2,599-1,600 예다인 103동 2층 205호</t>
-  </si>
-  <si>
-    <t>경북 경산시 와촌면 덕촌리 594-1 ,591-2,594,-2,597-1,-2,599-1,600 예다인 103동 1층 105호</t>
-  </si>
-  <si>
-    <t>경북 경산시 와촌면 덕촌리 594-1 ,591-2,594,-2,597-1,-2,599-1,600 예다인 102동 3층 308호</t>
-  </si>
-  <si>
-    <t>경북 경산시 와촌면 덕촌리 594-1 ,591-2,594,-2,597-1,-2,599-1,600 예다인 102동 4층 403호</t>
-  </si>
-  <si>
-    <t>경북 경산시 와촌면 덕촌리 594-1 ,591-2,594,-2,597-1,-2,599-1,600 예다인 102동 4층 405호</t>
-  </si>
-  <si>
-    <t>경북 경산시 와촌면 덕촌리 594-1 ,591-2,594,-2,597-1,-2,599-1,600 예다인 102동 4층 408호</t>
-  </si>
-  <si>
-    <t>경북 경산시 와촌면 덕촌리 594-1 ,591-2,594,-2,597-1,-2,599-1,600 예다인 102동 5층 507호</t>
-  </si>
-  <si>
-    <t>경북 경산시 와촌면 덕촌리 594-1 ,591-2,594,-2,597-1,-2,599-1,600 예다인 102동 14층 1405호</t>
-  </si>
-  <si>
-    <t>경북 경산시 와촌면 덕촌리 594-1 ,591-2,594,-2,597-1,-2,599-1,600 예다인 102동 3층 309호</t>
-  </si>
-  <si>
-    <t>경북 경산시 와촌면 덕촌리 594-1 ,591-2,594,-2,597-1,-2,599-1,600 예다인 102동 4층 407호</t>
-  </si>
-  <si>
-    <t>경북 경산시 와촌면 덕촌리 594-1 ,591-2,594,-2,597-1,-2,599-1,600 예다인 103동 1층 106호</t>
-  </si>
-  <si>
-    <t>경북 경산시 와촌면 덕촌리 594-1 ,591-2,594,-2,597-1,-2,599-1,600 예다인 102동 14층 1404호</t>
-  </si>
-  <si>
-    <t>경북 경산시 와촌면 덕촌리 594-1 ,591-2,594,-2,597-1,-2,599-1,600 예다인 102동 4층 406호</t>
-  </si>
-  <si>
-    <t>경북 경산시 와촌면 덕촌리 594-1 ,591-2,594,-2,597-1,-2,599-1,600 예다인 103동 2층 203호</t>
-  </si>
-  <si>
-    <t>경북 경산시 와촌면 덕촌리 594-1 ,591-2,594,-2,597-1,-2,599-1,600 예다인 103동 2층 202호</t>
-  </si>
-  <si>
-    <t>경북 경산시 와촌면 덕촌리 594-1 ,591-2,594,-2,597-1,-2,599-1,600 예다인 102동 3층 303호</t>
-  </si>
-  <si>
-    <t>경북 경산시 와촌면 덕촌리 594-1 ,591-2,594,-2,597-1,-2,599-1,600 예다인 103동 2층 206호</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
+  <si>
+    <t>국제건설</t>
+  </si>
+  <si>
+    <t>청주4계</t>
+  </si>
+  <si>
+    <t>충북 청주시 흥덕구 가경동 1416-3 드림플러스 2층 2925호(28396) 충북 청주시 흥덕구 2순환로 1233</t>
+  </si>
+  <si>
+    <t>404,000,000(14.03.27)&lt;br style='mso-data-placement:same-cell;'&gt; 105,906,000(26%)</t>
+  </si>
+  <si>
+    <t>조영숙/정달순</t>
+  </si>
+  <si>
+    <t>수원6계</t>
+  </si>
+  <si>
+    <t>경기 화성시 남양읍 신남리 36-10 ,-20 A동[일괄]-20, -12, -18, -21,</t>
+  </si>
+  <si>
+    <t>684,547,333(13.10.07)&lt;br style='mso-data-placement:same-cell;'&gt; 684,547,333(100%)</t>
+  </si>
+  <si>
+    <t>강상근</t>
+  </si>
+  <si>
+    <t>거창2계</t>
+  </si>
+  <si>
+    <t>경남 함양군 휴천면 목현리 산4-4</t>
+  </si>
+  <si>
+    <t>6,797,700(14.02.17)&lt;br style='mso-data-placement:same-cell;'&gt; 6,797,700(100%)</t>
+  </si>
+  <si>
+    <t>충북 청주시 흥덕구 가경동 1416-3 드림플러스 2층 2921호(28396) 충북 청주시 흥덕구 2순환로 1233</t>
+  </si>
+  <si>
+    <t>864,000,000(14.03.27)&lt;br style='mso-data-placement:same-cell;'&gt; 226,492,000(26%)</t>
+  </si>
+  <si>
+    <t>임창순외2</t>
+  </si>
+  <si>
+    <t>경기 화성시 반월동 344-3 ,345-2[일괄]-4, 345-2,(18384) 경기 화성시 효행로 1369-4</t>
+  </si>
+  <si>
+    <t>6,971,383,900(14.01.13)&lt;br style='mso-data-placement:same-cell;'&gt; 3,415,978,000(49%)</t>
+  </si>
+  <si>
+    <t>충북 청주시 흥덕구 가경동 1416-3 드림플러스 2층 2926호(28396) 충북 청주시 흥덕구 2순환로 1233</t>
+  </si>
+  <si>
+    <t>520,000,000(14.03.27)&lt;br style='mso-data-placement:same-cell;'&gt; 136,315,000(26%)</t>
+  </si>
+  <si>
+    <t>휄로쉽교회</t>
+  </si>
+  <si>
+    <t>경기 용인시 수지구 상현동 272-1 ,-2[일괄]-2, -3, -6, -8, 외3</t>
+  </si>
+  <si>
+    <t>13,819,539,200(13.09.23)&lt;br style='mso-data-placement:same-cell;'&gt; 13,819,539,200(100%)</t>
+  </si>
+  <si>
+    <t>충북 청주시 흥덕구 가경동 1416-3 드림플러스 2층 2920호(28396) 충북 청주시 흥덕구 2순환로 1233</t>
+  </si>
+  <si>
+    <t>416,000,000(14.03.27)&lt;br style='mso-data-placement:same-cell;'&gt; 109,052,000(26%)</t>
+  </si>
+  <si>
+    <t>경남 함양군 함양읍 이은리 972-50 ,-18,-46[일괄]888-1, 888-5, 890-, 906-7, 888-1 ,890,888-5,906-7, 외5(50044) 경남 함양군 함양읍 한들로 59-1</t>
+  </si>
+  <si>
+    <t>1,679,094,020(14.02.17)&lt;br style='mso-data-placement:same-cell;'&gt; 1,679,094,020(100%)</t>
+  </si>
+  <si>
+    <t>경남 함양군 함양읍 죽곡리 189</t>
+  </si>
+  <si>
+    <t>22,965,000(14.02.17)&lt;br style='mso-data-placement:same-cell;'&gt; 22,965,000(100%)</t>
+  </si>
+  <si>
+    <t>김옥자외4</t>
+  </si>
+  <si>
+    <t>경남 함양군 유림면 대궁리 842-1</t>
+  </si>
+  <si>
+    <t>269,500(14.08.21)&lt;br style='mso-data-placement:same-cell;'&gt; 36,000(13%)</t>
+  </si>
+  <si>
+    <t>충북 청주시 흥덕구 가경동 1416-3 드림플러스 2층 2907호(28396) 충북 청주시 흥덕구 2순환로 1233</t>
+  </si>
+  <si>
+    <t>343,000,000(14.03.27)&lt;br style='mso-data-placement:same-cell;'&gt; 89,915,000(26%)</t>
+  </si>
+  <si>
+    <t>경남 거창군 거창읍 송정리 산104-3[일괄]100-, -2, 103-2,</t>
+  </si>
+  <si>
+    <t>634,011,600(14.02.17)&lt;br style='mso-data-placement:same-cell;'&gt; 634,011,600(100%)</t>
+  </si>
+  <si>
+    <t>경남 함양군 함양읍 용평리 614-1(50039) 경남 함양군 함양읍 용평2길 7</t>
+  </si>
+  <si>
+    <t>23,520,000(14.02.17)&lt;br style='mso-data-placement:same-cell;'&gt; 23,520,000(100%)</t>
+  </si>
+  <si>
+    <t>이양표</t>
+  </si>
+  <si>
+    <t>경기 화성시 남양읍 신남리 36-11 B동[일괄]-12, -18, -21,(18269) 경기 화성시 남양읍 시청로102번길 67-1</t>
+  </si>
+  <si>
+    <t>649,074,694(13.10.07)&lt;br style='mso-data-placement:same-cell;'&gt; 649,074,694(100%)</t>
+  </si>
+  <si>
+    <t>경남 함양군 함양읍 이은리 972-34</t>
+  </si>
+  <si>
+    <t>27,968,000(14.02.17)&lt;br style='mso-data-placement:same-cell;'&gt; 27,968,000(100%)</t>
+  </si>
+  <si>
+    <t>송차훈</t>
+  </si>
+  <si>
+    <t>경남 거창군 거창읍 김천리 255-1 삼아 8층 801호(50147) 경남 거창군 거창읍 김천1길 14</t>
+  </si>
+  <si>
+    <t>64,000,000(14.11.21)&lt;br style='mso-data-placement:same-cell;'&gt; 64,000,000(100%)</t>
+  </si>
+  <si>
+    <t>충북 청주시 흥덕구 가경동 1416-3 드림플러스 2층 2906호(28396) 충북 청주시 흥덕구 2순환로 1233</t>
+  </si>
+  <si>
+    <t>423,000,000(14.03.27)&lt;br style='mso-data-placement:same-cell;'&gt; 110,887,000(26%)</t>
+  </si>
+  <si>
+    <t>경기 화성시 남양읍 신남리 36-19 A동[일괄]-12, -18, -21,(18269) 경기 화성시 남양읍 시청로102번길 67-1</t>
+  </si>
+  <si>
+    <t>696,690,693(13.10.07)&lt;br style='mso-data-placement:same-cell;'&gt; 696,690,693(100%)</t>
+  </si>
+  <si>
+    <t>경남 함양군 휴천면 목현리 720[일괄]721-, 722-,</t>
+  </si>
+  <si>
+    <t>30,624,000(14.02.17)&lt;br style='mso-data-placement:same-cell;'&gt; 30,624,000(100%)</t>
   </si>
 </sst>
 </file>
@@ -411,16 +498,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,30 +518,39 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -461,21 +558,27 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -483,21 +586,27 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -505,43 +614,55 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -549,65 +670,83 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -615,29 +754,38 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
